--- a/examples/36459-e00.xlsx
+++ b/examples/36459-e00.xlsx
@@ -14,8 +14,18 @@
     <sheet name="9.1.9 MEASUREMENT ABORT" sheetId="9" r:id="rId9"/>
     <sheet name="9.1.10 MEASUREMENT UPDATE" sheetId="10" r:id="rId10"/>
     <sheet name="9.1.11 ERROR INDICATION" sheetId="11" r:id="rId11"/>
-    <sheet name="Range bound" sheetId="12" r:id="rId12"/>
-    <sheet name="Causes" sheetId="13" r:id="rId13"/>
+    <sheet name="9.2.2 Message Type" sheetId="12" r:id="rId12"/>
+    <sheet name="9.2.3 SLmAP Transaction ID" sheetId="13" r:id="rId13"/>
+    <sheet name="9.2.4 UL RTOA Measurement Conf" sheetId="14" r:id="rId14"/>
+    <sheet name="9.2.5 UL RTOA Measurements" sheetId="15" r:id="rId15"/>
+    <sheet name="9.2.6 LMU ID" sheetId="16" r:id="rId16"/>
+    <sheet name="9.2.7 E-SMLC ID" sheetId="17" r:id="rId17"/>
+    <sheet name="9.2.8 LMU Information" sheetId="18" r:id="rId18"/>
+    <sheet name="9.2.9 LMU Position" sheetId="19" r:id="rId19"/>
+    <sheet name="9.2.10 Cause" sheetId="20" r:id="rId20"/>
+    <sheet name="_Cause_gi " sheetId="21" r:id="rId21"/>
+    <sheet name="9.2.11 Criticality Diagnostics" sheetId="22" r:id="rId22"/>
+    <sheet name="9.2.12 E-SMLC Measurement ID" sheetId="23" r:id="rId23"/>
   </sheets>
 </workbook>
 </file>
@@ -387,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,6 +437,12 @@
       <c r="D4" t="str">
         <v>M</v>
       </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
       <c r="H4" t="str">
         <v>YES</v>
       </c>
@@ -436,63 +452,93 @@
     </row>
     <row r="5">
       <c r="B5" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
         <v>Procedure Code</v>
       </c>
-      <c r="D5" t="str">
-        <v>M</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="D6" t="str">
+        <v>M</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
         <v>INTEGER (0..63)</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
         <v>Type of Message</v>
       </c>
-      <c r="D6" t="str">
-        <v>M</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="D7" t="str">
+        <v>M</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
         <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="D7" t="str">
-        <v>M</v>
-      </c>
-      <c r="F7" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
-      <c r="H7" t="str">
-        <v>-</v>
+      <c r="G7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>E-SMLC Measurement ID</v>
+        <v>SLmAP Transaction ID</v>
       </c>
       <c r="D8" t="str">
         <v>M</v>
       </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
       <c r="F8" t="str">
-        <v>INTEGER(1..65535,…)</v>
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>YES</v>
+        <v>-</v>
       </c>
       <c r="I8" t="str">
-        <v>reject</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>UL RTOA Measurement Configuration</v>
+        <v>E-SMLC Measurement ID</v>
       </c>
       <c r="D9" t="str">
         <v>M</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>INTEGER(1..65535,…)</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
       </c>
       <c r="H9" t="str">
         <v>YES</v>
@@ -502,303 +548,432 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="str">
-        <v>UL RTOA Reference Time</v>
+      <c r="A10" t="str">
+        <v>UL RTOA Measurement Configuration</v>
       </c>
       <c r="D10" t="str">
         <v>M</v>
       </c>
-      <c r="F10" t="str">
-        <v>BIT STRING (64)</v>
+      <c r="E10" t="str">
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>Time in seconds relative to 00:00:00 on 1 January 1900 (calculated as continuous time without leap seconds and traceable to a common time reference) where binary encoding of the integer part is in the first 32 bits and binary encoding of the fraction part in the last 32 bits. The fraction part is expressed with a granularity of 1 /2**32 second. This IE is defined in reference to the SFN initialization time, TS 36.455 [4].</v>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I10" t="str">
+        <v>reject</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="str">
+        <v>UL RTOA Reference Time</v>
+      </c>
+      <c r="D11" t="str">
+        <v>M</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>BIT STRING (64)</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Time in seconds relative to 00:00:00 on 1 January 1900 (calculated as continuous time without leap seconds and traceable to a common time reference) where binary encoding of the integer part is in the first 32 bits and binary encoding of the fraction part in the last 32 bits. The fraction part is expressed with a granularity of 1 /2**32 second. This IE is defined in reference to the SFN initialization time, TS 36.455 [4].</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
         <v>Search Window Parameters</v>
-      </c>
-      <c r="D11" t="str">
-        <v>O</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="str">
-        <v>Expected Propagation Delay</v>
       </c>
       <c r="D12" t="str">
         <v>O</v>
       </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
       <c r="F12" t="str">
-        <v>INTEGER (1..1200,…)</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>UL RTOA expected propagation delay as defined in TS 36.111 [9].</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="str">
-        <v>Delay Uncertainty</v>
+        <v>Expected Propagation Delay</v>
       </c>
       <c r="D13" t="str">
         <v>O</v>
       </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
       <c r="F13" t="str">
+        <v>INTEGER (1..1200,…)</v>
+      </c>
+      <c r="G13" t="str">
+        <v>UL RTOA expected propagation delay as defined in TS 36.111 [9].</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>Delay Uncertainty</v>
+      </c>
+      <c r="D14" t="str">
+        <v>O</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
         <v>INTEGER (1..100,…)</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G14" t="str">
         <v>The uncertainty of the propagation delay. Mapping is included in TS 36.111 [9].</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="str">
-        <v>Number of Transmissions</v>
-      </c>
-      <c r="D14" t="str">
-        <v>M</v>
-      </c>
-      <c r="F14" t="str">
-        <v>INTEGER (1..500,…, 0)</v>
-      </c>
-      <c r="G14" t="str">
-        <v>The number of periodic SRS transmissions. The value of ‘0’ represents an infinite number of SRS transmissions.</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
+        <v>Number of Transmissions</v>
+      </c>
+      <c r="D15" t="str">
+        <v>M</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>INTEGER (1..500,…, 0)</v>
+      </c>
+      <c r="G15" t="str">
+        <v>The number of periodic SRS transmissions. The value of ‘0’ represents an infinite number of SRS transmissions.</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
         <v>SRS Configuration</v>
       </c>
-      <c r="D15" t="str">
-        <v>M</v>
-      </c>
-      <c r="E15" t="str">
+      <c r="D16" t="str">
+        <v>M</v>
+      </c>
+      <c r="E16" t="str">
         <v>&lt;1.. maxServCell&gt;</v>
       </c>
-      <c r="G15" t="str">
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
         <v>Configuration of SRS for corresponding serving cells.</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v>PCI</v>
-      </c>
-      <c r="D16" t="str">
-        <v>M</v>
-      </c>
-      <c r="F16" t="str">
-        <v>INTEGER (0..503, …)</v>
-      </c>
-      <c r="G16" t="str">
-        <v>Physical Cell ID TS 36.455 [4].</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>UL EARFCN</v>
+        <v>PCI</v>
       </c>
       <c r="D17" t="str">
         <v>M</v>
       </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
       <c r="F17" t="str">
-        <v>INTEGER (0..maxEARFCN, ...)</v>
+        <v>INTEGER (0..503, …)</v>
       </c>
       <c r="G17" t="str">
-        <v>Corresponds to NUL for FDD and NDL/UL for TDD in ref. TS 36.104 [10]</v>
+        <v>Physical Cell ID TS 36.455 [4].</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>UL-bandwidth</v>
+        <v>UL EARFCN</v>
       </c>
       <c r="D18" t="str">
         <v>M</v>
       </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
       <c r="F18" t="str">
-        <v>ENUMERATED (n6, n15, n25, n50, n75, n100, ...)</v>
+        <v>INTEGER (0..maxEARFCN, ...)</v>
       </c>
       <c r="G18" t="str">
-        <v>Cell transmission bandwidth configuration in uplink corresponding to an E-UTRA channel bandwidth TS 36.104 [10], Table 5.6-1. Value n6 corresponds to 6 resource blocks, n15 to 15 resource blocks and so on.</v>
+        <v>Corresponds to NUL for FDD and NDL/UL for TDD in ref. TS 36.104 [10]</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="str">
-        <v>UL-CyclicPrefixLength</v>
+        <v>UL-bandwidth</v>
       </c>
       <c r="D19" t="str">
         <v>M</v>
       </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
       <c r="F19" t="str">
-        <v>ENUMERATED (Normal, Extended)</v>
+        <v>ENUMERATED (n6, n15, n25, n50, n75, n100, ...)</v>
       </c>
       <c r="G19" t="str">
-        <v>Uplink cyclic prefix TS 36.455 [4].</v>
+        <v>Cell transmission bandwidth configuration in uplink corresponding to an E-UTRA channel bandwidth TS 36.104 [10], Table 5.6-1. Value n6 corresponds to 6 resource blocks, n15 to 15 resource blocks and so on.</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="str">
-        <v>srs-BandwidthConfig</v>
+        <v>UL-CyclicPrefixLength</v>
       </c>
       <c r="D20" t="str">
         <v>M</v>
       </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
       <c r="F20" t="str">
-        <v>ENUMERATED (bw0, bw1, bw2, bw3, bw4, bw5, bw6, bw7, ...)</v>
+        <v>ENUMERATED (Normal, Extended)</v>
       </c>
       <c r="G20" t="str">
-        <v>Cell-specific SRS bandwidth configuration TS 36.211 [11]. bw0 corresponds to value 0, bw1 to value 1 and so on.</v>
+        <v>Uplink cyclic prefix TS 36.455 [4].</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>srs-Bandwidth</v>
+        <v>srs-BandwidthConfig</v>
       </c>
       <c r="D21" t="str">
         <v>M</v>
       </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
       <c r="F21" t="str">
-        <v>ENUMERATED (bw0, bw1, bw2, bw3, ...)</v>
+        <v>ENUMERATED (bw0, bw1, bw2, bw3, bw4, bw5, bw6, bw7, ...)</v>
       </c>
       <c r="G21" t="str">
-        <v>UE-specific SRS bandwidth configuration TS 36.211 [11]</v>
+        <v>Cell-specific SRS bandwidth configuration TS 36.211 [11]. bw0 corresponds to value 0, bw1 to value 1 and so on.</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="str">
-        <v>srs-AntennaPort</v>
+        <v>srs-Bandwidth</v>
       </c>
       <c r="D22" t="str">
         <v>M</v>
       </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
       <c r="F22" t="str">
-        <v>ENUMERATED (an1, an2, an4, , ...)</v>
+        <v>ENUMERATED (bw0, bw1, bw2, bw3, ...)</v>
       </c>
       <c r="G22" t="str">
-        <v>Number of antenna ports for SRS transmission. TS 36.211 [11]</v>
+        <v>UE-specific SRS bandwidth configuration TS 36.211 [11]</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="str">
-        <v>srs-HoppingBandwidth</v>
+        <v>srs-AntennaPort</v>
       </c>
       <c r="D23" t="str">
         <v>M</v>
       </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
       <c r="F23" t="str">
-        <v>ENUMERATED (hbw0, hbw1, hbw2, hbw3, ...)</v>
+        <v>ENUMERATED (an1, an2, an4, , ...)</v>
       </c>
       <c r="G23" t="str">
-        <v>SRS frequency hopping bandwidth configuration TS 36.211 [11]</v>
+        <v>Number of antenna ports for SRS transmission. TS 36.211 [11]</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="str">
-        <v>srs-cyclicShift</v>
+        <v>srs-HoppingBandwidth</v>
       </c>
       <c r="D24" t="str">
         <v>M</v>
       </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
       <c r="F24" t="str">
-        <v>ENUMERATED (cs0, cs1, cs2, cs3, cs4, cs5, cs6, cs7, ...)</v>
+        <v>ENUMERATED (hbw0, hbw1, hbw2, hbw3, ...)</v>
       </c>
       <c r="G24" t="str">
-        <v>SRS-Cyclic shift [36.211]</v>
+        <v>SRS frequency hopping bandwidth configuration TS 36.211 [11]</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="str">
-        <v>srs-ConfigIndex</v>
+        <v>srs-cyclicShift</v>
       </c>
       <c r="D25" t="str">
         <v>M</v>
       </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
       <c r="F25" t="str">
-        <v>INTEGER (0..1023)</v>
+        <v>ENUMERATED (cs0, cs1, cs2, cs3, cs4, cs5, cs6, cs7, ...)</v>
       </c>
       <c r="G25" t="str">
-        <v>SRS configuration index [TS 36.213]</v>
+        <v>SRS-Cyclic shift [36.211]</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="str">
-        <v>MaxUpPt</v>
+        <v>srs-ConfigIndex</v>
       </c>
       <c r="D26" t="str">
-        <v>C-IfTDD</v>
+        <v>M</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
       </c>
       <c r="F26" t="str">
-        <v>ENUMERATED (true)</v>
+        <v>INTEGER (0..1023)</v>
       </c>
       <c r="G26" t="str">
-        <v>MaxUpPt TS 36.211 [11]</v>
+        <v>SRS configuration index [TS 36.213]</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="str">
-        <v>transmissionComb</v>
+        <v>MaxUpPt</v>
       </c>
       <c r="D27" t="str">
-        <v>M</v>
+        <v>C-IfTDD</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
       </c>
       <c r="F27" t="str">
-        <v>INTEGER (0..1)</v>
+        <v>ENUMERATED (true)</v>
       </c>
       <c r="G27" t="str">
-        <v>Transmission comb TS 36.211 [11]</v>
+        <v>MaxUpPt TS 36.211 [11]</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="str">
-        <v>freqDomainPosition</v>
+        <v>transmissionComb</v>
       </c>
       <c r="D28" t="str">
         <v>M</v>
       </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
       <c r="F28" t="str">
-        <v>INTEGER (0..23)</v>
+        <v>INTEGER (0..1)</v>
       </c>
       <c r="G28" t="str">
-        <v>Frequency domain position TS 36.211 [11]</v>
+        <v>Transmission comb TS 36.211 [11]</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="str">
-        <v>groupHoppingEnabled</v>
+        <v>freqDomainPosition</v>
       </c>
       <c r="D29" t="str">
         <v>M</v>
       </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
       <c r="F29" t="str">
-        <v>BOOLEAN</v>
+        <v>INTEGER (0..23)</v>
       </c>
       <c r="G29" t="str">
-        <v>Group-hopping-enabled TS 36.211 [11]</v>
+        <v>Frequency domain position TS 36.211 [11]</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="str">
+        <v>groupHoppingEnabled</v>
+      </c>
+      <c r="D30" t="str">
+        <v>M</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v>BOOLEAN</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Group-hopping-enabled TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
         <v>deltaSS</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D31" t="str">
         <v>O</v>
       </c>
-      <c r="F30" t="str">
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
         <v>INTEGER (0..29)</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G31" t="str">
         <v>deltaSS TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Condition</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>IfTDD</v>
+      </c>
+      <c r="D34" t="str">
+        <v>This IE shall be present if the UL-EARFCN IE refers to TDD operation.</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>maxServCell</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Maximum number of serving cells = 5 TS 36.455 [4].</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>maxEARFCN</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Maximum value of UL EARFCN. Value is 262143.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I38"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -838,6 +1013,12 @@
       <c r="D4" t="str">
         <v>M</v>
       </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
       <c r="H4" t="str">
         <v>YES</v>
       </c>
@@ -847,63 +1028,93 @@
     </row>
     <row r="5">
       <c r="B5" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
         <v>Procedure Code</v>
       </c>
-      <c r="D5" t="str">
-        <v>M</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="D6" t="str">
+        <v>M</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
         <v>INTEGER (0..63)</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
         <v>Type of Message</v>
       </c>
-      <c r="D6" t="str">
-        <v>M</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="D7" t="str">
+        <v>M</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
         <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="D7" t="str">
-        <v>M</v>
-      </c>
-      <c r="F7" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
-      <c r="H7" t="str">
-        <v>-</v>
+      <c r="G7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>E-SMLC Measurement ID</v>
+        <v>SLmAP Transaction ID</v>
       </c>
       <c r="D8" t="str">
         <v>M</v>
       </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
       <c r="F8" t="str">
-        <v>INTEGER(1..65535,…)</v>
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>YES</v>
+        <v>-</v>
       </c>
       <c r="I8" t="str">
-        <v>reject</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>UL RTOA Measurement Configuration</v>
+        <v>E-SMLC Measurement ID</v>
       </c>
       <c r="D9" t="str">
         <v>M</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>INTEGER(1..65535,…)</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
       </c>
       <c r="H9" t="str">
         <v>YES</v>
@@ -913,784 +1124,430 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="str">
-        <v>UL RTOA Reference Time</v>
+      <c r="A10" t="str">
+        <v>UL RTOA Measurement Configuration</v>
       </c>
       <c r="D10" t="str">
         <v>M</v>
       </c>
-      <c r="F10" t="str">
-        <v>BIT STRING (64)</v>
+      <c r="E10" t="str">
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>Time in seconds relative to 00:00:00 on 1 January 1900 (calculated as continuous time without leap seconds and traceable to a common time reference) where binary encoding of the integer part is in the first 32 bits and binary encoding of the fraction part in the last 32 bits. The fraction part is expressed with a granularity of 1 /2**32 second. This IE is defined in reference to the SFN initialization time, TS 36.455 [4].</v>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I10" t="str">
+        <v>reject</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="str">
+        <v>UL RTOA Reference Time</v>
+      </c>
+      <c r="D11" t="str">
+        <v>M</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>BIT STRING (64)</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Time in seconds relative to 00:00:00 on 1 January 1900 (calculated as continuous time without leap seconds and traceable to a common time reference) where binary encoding of the integer part is in the first 32 bits and binary encoding of the fraction part in the last 32 bits. The fraction part is expressed with a granularity of 1 /2**32 second. This IE is defined in reference to the SFN initialization time, TS 36.455 [4].</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
         <v>Search Window Parameters</v>
-      </c>
-      <c r="D11" t="str">
-        <v>O</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="str">
-        <v>Expected Propagation Delay</v>
       </c>
       <c r="D12" t="str">
         <v>O</v>
       </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
       <c r="F12" t="str">
-        <v>INTEGER (1..1200,…)</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>UL RTOA expected propagation delay as defined in TS 36.111 [9].</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="str">
-        <v>Delay Uncertainty</v>
+        <v>Expected Propagation Delay</v>
       </c>
       <c r="D13" t="str">
         <v>O</v>
       </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
       <c r="F13" t="str">
+        <v>INTEGER (1..1200,…)</v>
+      </c>
+      <c r="G13" t="str">
+        <v>UL RTOA expected propagation delay as defined in TS 36.111 [9].</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>Delay Uncertainty</v>
+      </c>
+      <c r="D14" t="str">
+        <v>O</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
         <v>INTEGER (1..100,…)</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G14" t="str">
         <v>The uncertainty of the propagation delay. Mapping is included in TS 36.111 [9].</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="str">
-        <v>Number of Transmissions</v>
-      </c>
-      <c r="D14" t="str">
-        <v>M</v>
-      </c>
-      <c r="F14" t="str">
-        <v>INTEGER (1..500,…, 0)</v>
-      </c>
-      <c r="G14" t="str">
-        <v>The number of periodic SRS transmissions. The value of ‘0’ represents an infinite number of SRS transmissions.</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
+        <v>Number of Transmissions</v>
+      </c>
+      <c r="D15" t="str">
+        <v>M</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>INTEGER (1..500,…, 0)</v>
+      </c>
+      <c r="G15" t="str">
+        <v>The number of periodic SRS transmissions. The value of ‘0’ represents an infinite number of SRS transmissions.</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
         <v>SRS Configuration</v>
       </c>
-      <c r="D15" t="str">
-        <v>M</v>
-      </c>
-      <c r="E15" t="str">
+      <c r="D16" t="str">
+        <v>M</v>
+      </c>
+      <c r="E16" t="str">
         <v>&lt;1.. maxServCell&gt;</v>
       </c>
-      <c r="G15" t="str">
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
         <v>Configuration of SRS for corresponding serving cells.</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v>PCI</v>
-      </c>
-      <c r="D16" t="str">
-        <v>M</v>
-      </c>
-      <c r="F16" t="str">
-        <v>INTEGER (0..503, …)</v>
-      </c>
-      <c r="G16" t="str">
-        <v>Physical Cell ID TS 36.455 [4].</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>UL EARFCN</v>
+        <v>PCI</v>
       </c>
       <c r="D17" t="str">
         <v>M</v>
       </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
       <c r="F17" t="str">
-        <v>INTEGER (0..maxEARFCN, ...)</v>
+        <v>INTEGER (0..503, …)</v>
       </c>
       <c r="G17" t="str">
-        <v>Corresponds to NUL for FDD and NDL/UL for TDD in ref. TS 36.104 [10]</v>
+        <v>Physical Cell ID TS 36.455 [4].</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>UL-bandwidth</v>
+        <v>UL EARFCN</v>
       </c>
       <c r="D18" t="str">
         <v>M</v>
       </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
       <c r="F18" t="str">
-        <v>ENUMERATED (n6, n15, n25, n50, n75, n100, ...)</v>
+        <v>INTEGER (0..maxEARFCN, ...)</v>
       </c>
       <c r="G18" t="str">
-        <v>Cell transmission bandwidth configuration in uplink corresponding to an E-UTRA channel bandwidth TS 36.104 [10], Table 5.6-1. Value n6 corresponds to 6 resource blocks, n15 to 15 resource blocks and so on.</v>
+        <v>Corresponds to NUL for FDD and NDL/UL for TDD in ref. TS 36.104 [10]</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="str">
-        <v>UL-CyclicPrefixLength</v>
+        <v>UL-bandwidth</v>
       </c>
       <c r="D19" t="str">
         <v>M</v>
       </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
       <c r="F19" t="str">
-        <v>ENUMERATED (Normal, Extended)</v>
+        <v>ENUMERATED (n6, n15, n25, n50, n75, n100, ...)</v>
       </c>
       <c r="G19" t="str">
-        <v>Uplink cyclic prefix TS 36.455 [4].</v>
+        <v>Cell transmission bandwidth configuration in uplink corresponding to an E-UTRA channel bandwidth TS 36.104 [10], Table 5.6-1. Value n6 corresponds to 6 resource blocks, n15 to 15 resource blocks and so on.</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="str">
-        <v>srs-BandwidthConfig</v>
+        <v>UL-CyclicPrefixLength</v>
       </c>
       <c r="D20" t="str">
         <v>M</v>
       </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
       <c r="F20" t="str">
-        <v>ENUMERATED (bw0, bw1, bw2, bw3, bw4, bw5, bw6, bw7, ...)</v>
+        <v>ENUMERATED (Normal, Extended)</v>
       </c>
       <c r="G20" t="str">
-        <v>Cell-specific SRS bandwidth configuration TS 36.211 [11]. bw0 corresponds to value 0, bw1 to value 1 and so on.</v>
+        <v>Uplink cyclic prefix TS 36.455 [4].</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>srs-Bandwidth</v>
+        <v>srs-BandwidthConfig</v>
       </c>
       <c r="D21" t="str">
         <v>M</v>
       </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
       <c r="F21" t="str">
-        <v>ENUMERATED (bw0, bw1, bw2, bw3, ...)</v>
+        <v>ENUMERATED (bw0, bw1, bw2, bw3, bw4, bw5, bw6, bw7, ...)</v>
       </c>
       <c r="G21" t="str">
-        <v>UE-specific SRS bandwidth configuration TS 36.211 [11]</v>
+        <v>Cell-specific SRS bandwidth configuration TS 36.211 [11]. bw0 corresponds to value 0, bw1 to value 1 and so on.</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="str">
-        <v>srs-AntennaPort</v>
+        <v>srs-Bandwidth</v>
       </c>
       <c r="D22" t="str">
         <v>M</v>
       </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
       <c r="F22" t="str">
-        <v>ENUMERATED (an1, an2, an4, , ...)</v>
+        <v>ENUMERATED (bw0, bw1, bw2, bw3, ...)</v>
       </c>
       <c r="G22" t="str">
-        <v>Number of antenna ports for SRS transmission. TS 36.211 [11]</v>
+        <v>UE-specific SRS bandwidth configuration TS 36.211 [11]</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="str">
-        <v>srs-HoppingBandwidth</v>
+        <v>srs-AntennaPort</v>
       </c>
       <c r="D23" t="str">
         <v>M</v>
       </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
       <c r="F23" t="str">
-        <v>ENUMERATED (hbw0, hbw1, hbw2, hbw3, ...)</v>
+        <v>ENUMERATED (an1, an2, an4, , ...)</v>
       </c>
       <c r="G23" t="str">
-        <v>SRS frequency hopping bandwidth configuration TS 36.211 [11]</v>
+        <v>Number of antenna ports for SRS transmission. TS 36.211 [11]</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="str">
-        <v>srs-cyclicShift</v>
+        <v>srs-HoppingBandwidth</v>
       </c>
       <c r="D24" t="str">
         <v>M</v>
       </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
       <c r="F24" t="str">
-        <v>ENUMERATED (cs0, cs1, cs2, cs3, cs4, cs5, cs6, cs7, ...)</v>
+        <v>ENUMERATED (hbw0, hbw1, hbw2, hbw3, ...)</v>
       </c>
       <c r="G24" t="str">
-        <v>SRS-Cyclic shift [36.211]</v>
+        <v>SRS frequency hopping bandwidth configuration TS 36.211 [11]</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="str">
-        <v>srs-ConfigIndex</v>
+        <v>srs-cyclicShift</v>
       </c>
       <c r="D25" t="str">
         <v>M</v>
       </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
       <c r="F25" t="str">
-        <v>INTEGER (0..1023)</v>
+        <v>ENUMERATED (cs0, cs1, cs2, cs3, cs4, cs5, cs6, cs7, ...)</v>
       </c>
       <c r="G25" t="str">
-        <v>SRS configuration index [TS 36.213]</v>
+        <v>SRS-Cyclic shift [36.211]</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="str">
-        <v>MaxUpPt</v>
+        <v>srs-ConfigIndex</v>
       </c>
       <c r="D26" t="str">
-        <v>C-IfTDD</v>
+        <v>M</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
       </c>
       <c r="F26" t="str">
-        <v>ENUMERATED (true)</v>
+        <v>INTEGER (0..1023)</v>
       </c>
       <c r="G26" t="str">
-        <v>MaxUpPt TS 36.211 [11]</v>
+        <v>SRS configuration index [TS 36.213]</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="str">
-        <v>transmissionComb</v>
+        <v>MaxUpPt</v>
       </c>
       <c r="D27" t="str">
-        <v>M</v>
+        <v>C-IfTDD</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
       </c>
       <c r="F27" t="str">
-        <v>INTEGER (0..1)</v>
+        <v>ENUMERATED (true)</v>
       </c>
       <c r="G27" t="str">
-        <v>Transmission comb TS 36.211 [11]</v>
+        <v>MaxUpPt TS 36.211 [11]</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="str">
-        <v>freqDomainPosition</v>
+        <v>transmissionComb</v>
       </c>
       <c r="D28" t="str">
         <v>M</v>
       </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
       <c r="F28" t="str">
-        <v>INTEGER (0..23)</v>
+        <v>INTEGER (0..1)</v>
       </c>
       <c r="G28" t="str">
-        <v>Frequency domain position TS 36.211 [11]</v>
+        <v>Transmission comb TS 36.211 [11]</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="str">
-        <v>groupHoppingEnabled</v>
+        <v>freqDomainPosition</v>
       </c>
       <c r="D29" t="str">
         <v>M</v>
       </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
       <c r="F29" t="str">
-        <v>BOOLEAN</v>
+        <v>INTEGER (0..23)</v>
       </c>
       <c r="G29" t="str">
-        <v>Group-hopping-enabled TS 36.211 [11]</v>
+        <v>Frequency domain position TS 36.211 [11]</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="str">
+        <v>groupHoppingEnabled</v>
+      </c>
+      <c r="D30" t="str">
+        <v>M</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v>BOOLEAN</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Group-hopping-enabled TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
         <v>deltaSS</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D31" t="str">
         <v>O</v>
       </c>
-      <c r="F30" t="str">
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
         <v>INTEGER (0..29)</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G31" t="str">
         <v>deltaSS TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Condition</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>IfTDD</v>
+      </c>
+      <c r="D34" t="str">
+        <v>This IE shall be present if the UL-EARFCN IE refers to TDD operation.</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>maxServCell</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Maximum number of serving cells = 5 TS 36.455 [4].</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>maxEARFCN</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Maximum value of UL EARFCN. Value is 262143.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I38"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ERROR INDICATION</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>IE/Group Name</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Presence</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Range</v>
-      </c>
-      <c r="F3" t="str">
-        <v>IE type and reference</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Semantics description</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Criticality</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Assigned Criticality</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Message Type</v>
-      </c>
-      <c r="D4" t="str">
-        <v>M</v>
-      </c>
-      <c r="H4" t="str">
-        <v>YES</v>
-      </c>
-      <c r="I4" t="str">
-        <v>ignore</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="str">
-        <v>Procedure Code</v>
-      </c>
-      <c r="D5" t="str">
-        <v>M</v>
-      </c>
-      <c r="F5" t="str">
-        <v>INTEGER (0..63)</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>Type of Message</v>
-      </c>
-      <c r="D6" t="str">
-        <v>M</v>
-      </c>
-      <c r="F6" t="str">
-        <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="D7" t="str">
-        <v>M</v>
-      </c>
-      <c r="F7" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
-      <c r="H7" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Cause</v>
-      </c>
-      <c r="D8" t="str">
-        <v>O</v>
-      </c>
-      <c r="F8" t="str">
-        <v>9.2.0</v>
-      </c>
-      <c r="H8" t="str">
-        <v>YES</v>
-      </c>
-      <c r="I8" t="str">
-        <v>ignore</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Criticality Diagnostics</v>
-      </c>
-      <c r="D9" t="str">
-        <v>O</v>
-      </c>
-      <c r="H9" t="str">
-        <v>YES</v>
-      </c>
-      <c r="I9" t="str">
-        <v>ignore</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="str">
-        <v>Procedure Code</v>
-      </c>
-      <c r="D10" t="str">
-        <v>O</v>
-      </c>
-      <c r="F10" t="str">
-        <v>INTEGER (0..63)</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="str">
-        <v>Triggering Message</v>
-      </c>
-      <c r="D11" t="str">
-        <v>O</v>
-      </c>
-      <c r="F11" t="str">
-        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
-      </c>
-      <c r="G11" t="str">
-        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="str">
-        <v>Procedure Criticality</v>
-      </c>
-      <c r="D12" t="str">
-        <v>O</v>
-      </c>
-      <c r="F12" t="str">
-        <v>ENUMERATED(reject, ignore, notify)</v>
-      </c>
-      <c r="G12" t="str">
-        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="D13" t="str">
-        <v>O</v>
-      </c>
-      <c r="F13" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="str">
-        <v>Information Element Criticality Diagnostics</v>
-      </c>
-      <c r="E14" t="str">
-        <v>0 to &lt;maxnoof errors&gt;</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
-        <v>IE Criticality</v>
-      </c>
-      <c r="D15" t="str">
-        <v>M</v>
-      </c>
-      <c r="F15" t="str">
-        <v>ENUMERATED(reject, ignore, notify)</v>
-      </c>
-      <c r="G15" t="str">
-        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v>IE ID</v>
-      </c>
-      <c r="D16" t="str">
-        <v>M</v>
-      </c>
-      <c r="F16" t="str">
-        <v>INTEGER (0..65535)</v>
-      </c>
-      <c r="G16" t="str">
-        <v>The IE ID of the not understood or missing IE</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="str">
-        <v>Type of Error</v>
-      </c>
-      <c r="D17" t="str">
-        <v>M</v>
-      </c>
-      <c r="F17" t="str">
-        <v>ENUMERATED(not understood, missing, …)</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I17"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Range bound</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Explanation</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>maxServCell</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Maximum number of serving cells = 5 TS 36.455 [4].</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>maxEARFCN</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Maximum value of UL EARFCN. Value is 262143.</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>maxNoULRTOA</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Maximum no. of UL RTOA measurements per UE is 5 , one measurement per carrier.</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>maxBWComb</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Maximum no. of Band Combinations is 128.</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>maxBWCombSet</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Maximum index of the bandwidth combination set is 32.</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>maxSimultaneousBands</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Maximum number of Simultaneous Bands is 4.</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>maxNoLMURfBands</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Maximum number of LMU RF Bands is 256.</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>maxnooferrors</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Maximum no. of IE errors allowed to be reported with a single message. The value for maxnooferrors is 256.</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B9"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Radio Network Layer cause</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Meaning</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Unknown or already allocated SLmAP ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>The action failed because the SLmAP ID is either unknown, or (for a first message received at the LMU) is known and already allocated to an existing context.</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>RF frequency bands not supported</v>
-      </c>
-      <c r="B3" t="str">
-        <v>The LMU does not support UL RTOA measurements in the requested RF band or RF band combinations for a CA UE.</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>RF bandwidth combination for a CA UE not supported</v>
-      </c>
-      <c r="B4" t="str">
-        <v>The LMU does not support UL RTOA measurements for a CA UE over the requested RF bandwidth or RF bandwidth combinations.</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Invalid SRS configuration</v>
-      </c>
-      <c r="B5" t="str">
-        <v>The received SRS configuration for the target UE was not valid.</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Unspecified</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Sent when none of the above cause values applies but still the cause is Location Measurement related.</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Protocol cause</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Meaning</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Transfer Syntax Error</v>
-      </c>
-      <c r="B9" t="str">
-        <v>The received message included a transfer syntax error.</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Abstract Syntax Error (Reject)</v>
-      </c>
-      <c r="B10" t="str">
-        <v>The received message included an abstract syntax error and the concerning criticality indicated "reject".</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Abstract Syntax Error (Ignore And Notify)</v>
-      </c>
-      <c r="B11" t="str">
-        <v>The received message included an abstract syntax error and the concerning criticality indicated "ignore and notify".</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Message Not Compatible With LMU State</v>
-      </c>
-      <c r="B12" t="str">
-        <v>The received message was not compatible with the LMU state.</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Semantic Error</v>
-      </c>
-      <c r="B13" t="str">
-        <v>The received message included a semantic error.</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Abstract Syntax Error (Falsely Constructed Message)</v>
-      </c>
-      <c r="B14" t="str">
-        <v>The received message contained IEs or IE groups in wrong order or with too many occurrences.</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Unspecified</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Sent when none of the above cause values applies but still the cause is Protocol related.</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Miscellaneous cause</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Meaning</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Control Processing Overload</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Control processing overload.</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Not Enough Processing Resources Available</v>
-      </c>
-      <c r="B19" t="str">
-        <v>No enough resources are available related to location processing.</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Hardware Failure</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Action related to hardware failure.</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>O&amp;M Intervention</v>
-      </c>
-      <c r="B21" t="str">
-        <v>The action is due to O&amp;M intervention.</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Unspecified Failure</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Sent when none of the above cause values applies and the cause is not related to either the Location Processing or Protocol categories.</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B23"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -1699,7 +1556,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>MEASUREMENT RESPONSE</v>
+        <v>ERROR INDICATION</v>
       </c>
     </row>
     <row r="3">
@@ -1732,234 +1589,286 @@
       <c r="D4" t="str">
         <v>M</v>
       </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
       <c r="H4" t="str">
         <v>YES</v>
       </c>
       <c r="I4" t="str">
-        <v>reject</v>
+        <v>ignore</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
         <v>Procedure Code</v>
       </c>
-      <c r="D5" t="str">
-        <v>M</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="D6" t="str">
+        <v>M</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
         <v>INTEGER (0..63)</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
         <v>Type of Message</v>
       </c>
-      <c r="D6" t="str">
-        <v>M</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="D7" t="str">
+        <v>M</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
         <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="D7" t="str">
-        <v>M</v>
-      </c>
-      <c r="F7" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
-      <c r="H7" t="str">
-        <v>-</v>
+      <c r="G7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>E-SMLC Measurement ID</v>
+        <v>SLmAP Transaction ID</v>
       </c>
       <c r="D8" t="str">
         <v>M</v>
       </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
       <c r="F8" t="str">
-        <v>INTEGER(1..65535,…)</v>
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>YES</v>
+        <v>-</v>
       </c>
       <c r="I8" t="str">
-        <v>reject</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>UL RTOA measurements</v>
+        <v>Cause</v>
       </c>
       <c r="D9" t="str">
-        <v>M</v>
+        <v>O</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>9.2.0</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
       </c>
       <c r="H9" t="str">
         <v>YES</v>
       </c>
       <c r="I9" t="str">
-        <v>reject</v>
+        <v>ignore</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="str">
-        <v>ULRTOAMeasurements</v>
+      <c r="A10" t="str">
+        <v>Criticality Diagnostics</v>
       </c>
       <c r="D10" t="str">
-        <v>M</v>
+        <v>O</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;0..maxNoULRTOA&gt;</v>
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>Information below included for each UL RTOA measurement.</v>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I10" t="str">
+        <v>ignore</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" t="str">
-        <v>UL EARFCN</v>
+      <c r="B11" t="str">
+        <v>Procedure Code</v>
       </c>
       <c r="D11" t="str">
-        <v>M</v>
+        <v>O</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v>INTEGER (0..maxEARFCN,…)</v>
+        <v>INTEGER (0..63)</v>
       </c>
       <c r="G11" t="str">
-        <v>Corresponds to NUL for FDD and NDL/UL for TDD in TS 36.104.</v>
+        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="str">
-        <v>UL RTOA</v>
+      <c r="B12" t="str">
+        <v>Triggering Message</v>
       </c>
       <c r="D12" t="str">
-        <v>M</v>
+        <v>O</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
       </c>
       <c r="F12" t="str">
-        <v>INTEGER (1..4800, …)</v>
+        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
       </c>
       <c r="G12" t="str">
-        <v>LU RTOA Measruement. Mapping of the measured quantity is as defined in TS 36.111 [9].</v>
+        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>Criticality Diagnostics</v>
+      <c r="B13" t="str">
+        <v>Procedure Criticality</v>
       </c>
       <c r="D13" t="str">
         <v>O</v>
       </c>
-      <c r="H13" t="str">
-        <v>YES</v>
-      </c>
-      <c r="I13" t="str">
-        <v>ignore</v>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>ENUMERATED(reject, ignore, notify)</v>
+      </c>
+      <c r="G13" t="str">
+        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="str">
-        <v>Procedure Code</v>
+        <v>SLmAP Transaction ID</v>
       </c>
       <c r="D14" t="str">
         <v>O</v>
       </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
       <c r="F14" t="str">
-        <v>INTEGER (0..63)</v>
+        <v>INTEGER (0..32767, …)</v>
       </c>
       <c r="G14" t="str">
-        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <v>Triggering Message</v>
+        <v>Information Element Criticality Diagnostics</v>
       </c>
       <c r="D15" t="str">
-        <v>O</v>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v>0 to &lt;maxnoof errors&gt;</v>
       </c>
       <c r="F15" t="str">
-        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
+        <v/>
       </c>
       <c r="G15" t="str">
-        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
+        <v/>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="str">
-        <v>Procedure Criticality</v>
+      <c r="C16" t="str">
+        <v>IE Criticality</v>
       </c>
       <c r="D16" t="str">
-        <v>O</v>
+        <v>M</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
       </c>
       <c r="F16" t="str">
         <v>ENUMERATED(reject, ignore, notify)</v>
       </c>
       <c r="G16" t="str">
-        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
+        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="str">
-        <v>SLmAP Transaction ID</v>
+      <c r="C17" t="str">
+        <v>IE ID</v>
       </c>
       <c r="D17" t="str">
-        <v>O</v>
+        <v>M</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
       </c>
       <c r="F17" t="str">
-        <v>INTEGER (0..32767, …)</v>
+        <v>INTEGER (0..65535)</v>
+      </c>
+      <c r="G17" t="str">
+        <v>The IE ID of the not understood or missing IE</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="str">
-        <v>Information Element Criticality Diagnostics</v>
+      <c r="C18" t="str">
+        <v>Type of Error</v>
+      </c>
+      <c r="D18" t="str">
+        <v>M</v>
       </c>
       <c r="E18" t="str">
-        <v>0 to &lt;maxnoof errors&gt;</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="str">
-        <v>IE Criticality</v>
-      </c>
-      <c r="D19" t="str">
-        <v>M</v>
-      </c>
-      <c r="F19" t="str">
-        <v>ENUMERATED(reject, ignore, notify)</v>
-      </c>
-      <c r="G19" t="str">
-        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>ENUMERATED(not understood, missing, …)</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="str">
-        <v>IE ID</v>
+      <c r="A20" t="str">
+        <v>Range bound</v>
       </c>
       <c r="D20" t="str">
-        <v>M</v>
-      </c>
-      <c r="F20" t="str">
-        <v>INTEGER (0..65535)</v>
-      </c>
-      <c r="G20" t="str">
-        <v>The IE ID of the not understood or missing IE</v>
+        <v>Explanation</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="str">
-        <v>Type of Error</v>
+      <c r="A21" t="str">
+        <v>maxnooferrors</v>
       </c>
       <c r="D21" t="str">
-        <v>M</v>
-      </c>
-      <c r="F21" t="str">
-        <v>ENUMERATED(not understood, missing, …)</v>
+        <v>Maximum no. of IE errors allowed to be reported with a single message. The value for maxnooferrors is 256.</v>
       </c>
     </row>
   </sheetData>
@@ -1969,9 +1878,2355 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Message Type</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="E3" t="str">
+        <v>IE type and reference</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Semantics description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>Procedure Code</v>
+      </c>
+      <c r="C5" t="str">
+        <v>M</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>INTEGER (0..63)</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>Type of Message</v>
+      </c>
+      <c r="C6" t="str">
+        <v>M</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="D3" t="str">
+        <v>IE Type and Reference</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Semantics Description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="B4" t="str">
+        <v>M</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>UL RTOA Measurement Configuration</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="E3" t="str">
+        <v>IE Type and Reference</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Semantics Description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>UL RTOA Reference Time</v>
+      </c>
+      <c r="C4" t="str">
+        <v>M</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>BIT STRING (64)</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Time in seconds relative to 00:00:00 on 1 January 1900 (calculated as continuous time without leap seconds and traceable to a common time reference) where binary encoding of the integer part is in the first 32 bits and binary encoding of the fraction part in the last 32 bits. The fraction part is expressed with a granularity of 1 /2**32 second. This IE is defined in reference to the SFN initialization time, TS 36.455 [4].</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Search Window Parameters</v>
+      </c>
+      <c r="C5" t="str">
+        <v>O</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>Expected Propagation Delay</v>
+      </c>
+      <c r="C6" t="str">
+        <v>O</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>INTEGER (1..1200,…)</v>
+      </c>
+      <c r="F6" t="str">
+        <v>UL RTOA expected propagation delay as defined in TS 36.111 [9].</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Delay Uncertainty</v>
+      </c>
+      <c r="C7" t="str">
+        <v>O</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>INTEGER (1..100,…)</v>
+      </c>
+      <c r="F7" t="str">
+        <v>The uncertainty of the propagation delay. Mapping is included in TS 36.111 [9].</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Number of Transmissions</v>
+      </c>
+      <c r="C8" t="str">
+        <v>M</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v>INTEGER (1..500,…, 0)</v>
+      </c>
+      <c r="F8" t="str">
+        <v>The number of periodic SRS transmissions. The value of ‘0’ represents an infinite number of SRS transmissions.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>SRS Configuration</v>
+      </c>
+      <c r="C9" t="str">
+        <v>M</v>
+      </c>
+      <c r="D9" t="str">
+        <v>&lt;1.. maxServCell&gt;</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>Configuration of SRS for corresponding serving cells.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>PCI</v>
+      </c>
+      <c r="C10" t="str">
+        <v>M</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v>INTEGER (0..503, …)</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Physical Cell ID TS 36.455 [4].</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>UL EARFCN</v>
+      </c>
+      <c r="C11" t="str">
+        <v>M</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>INTEGER (0..maxEARFCN, ...)</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Corresponds to NUL for FDD and NDL/UL for TDD in ref. TS 36.104 [10]</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>UL-bandwidth</v>
+      </c>
+      <c r="C12" t="str">
+        <v>M</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v>ENUMERATED (n6, n15, n25, n50, n75, n100, ...)</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Cell transmission bandwidth configuration in uplink corresponding to an E-UTRA channel bandwidth TS 36.104 [10], Table 5.6-1. Value n6 corresponds to 6 resource blocks, n15 to 15 resource blocks and so on.</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>UL-CyclicPrefixLength</v>
+      </c>
+      <c r="C13" t="str">
+        <v>M</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v>ENUMERATED (Normal, Extended)</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Uplink cyclic prefix TS 36.455 [4].</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>srs-BandwidthConfig</v>
+      </c>
+      <c r="C14" t="str">
+        <v>M</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v>ENUMERATED (bw0, bw1, bw2, bw3, bw4, bw5, bw6, bw7, ...)</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Cell-specific SRS bandwidth configuration TS 36.211 [11]. bw0 corresponds to value 0, bw1 to value 1 and so on.</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>srs-Bandwidth</v>
+      </c>
+      <c r="C15" t="str">
+        <v>M</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v>ENUMERATED (bw0, bw1, bw2, bw3, ...)</v>
+      </c>
+      <c r="F15" t="str">
+        <v>UE-specific SRS bandwidth configuration TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>srs-AntennaPort</v>
+      </c>
+      <c r="C16" t="str">
+        <v>M</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v>ENUMERATED (an1, an2, an4, , ...)</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Number of antenna ports for SRS transmission. TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>srs-HoppingBandwidth</v>
+      </c>
+      <c r="C17" t="str">
+        <v>M</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v>ENUMERATED (hbw0, hbw1, hbw2, hbw3, ...)</v>
+      </c>
+      <c r="F17" t="str">
+        <v>SRS frequency hopping bandwidth configuration TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>srs-cyclicShift</v>
+      </c>
+      <c r="C18" t="str">
+        <v>M</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v>ENUMERATED (cs0, cs1, cs2, cs3, cs4, cs5, cs6, cs7, ...)</v>
+      </c>
+      <c r="F18" t="str">
+        <v>SRS-Cyclic shift [36.211]</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>srs-ConfigIndex</v>
+      </c>
+      <c r="C19" t="str">
+        <v>M</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v>INTEGER (0..1023)</v>
+      </c>
+      <c r="F19" t="str">
+        <v>SRS configuration index [TS 36.213]</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>MaxUpPt</v>
+      </c>
+      <c r="C20" t="str">
+        <v>C-IfTDD</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v>ENUMERATED (true)</v>
+      </c>
+      <c r="F20" t="str">
+        <v>MaxUpPt TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>transmissionComb</v>
+      </c>
+      <c r="C21" t="str">
+        <v>M</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v>INTEGER (0..1)</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Transmission comb TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
+        <v>freqDomainPosition</v>
+      </c>
+      <c r="C22" t="str">
+        <v>M</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v>INTEGER (0..23)</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Frequency domain position TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
+        <v>groupHoppingEnabled</v>
+      </c>
+      <c r="C23" t="str">
+        <v>M</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v>BOOLEAN</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Group-hopping-enabled TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>deltaSS</v>
+      </c>
+      <c r="C24" t="str">
+        <v>O</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v>INTEGER (0..29)</v>
+      </c>
+      <c r="F24" t="str">
+        <v>deltaSS TS 36.211 [11]</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Condition</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>IfTDD</v>
+      </c>
+      <c r="C27" t="str">
+        <v>This IE shall be present if the UL-EARFCN IE refers to TDD operation.</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>maxServCell</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Maximum number of serving cells = 5 TS 36.455 [4].</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>maxEARFCN</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Maximum value of UL EARFCN. Value is 262143.</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F31"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>UL RTOA Measurements</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="E3" t="str">
+        <v>IE Type and Reference</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Semantics Description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ULRTOAMeasurements</v>
+      </c>
+      <c r="C4" t="str">
+        <v>M</v>
+      </c>
+      <c r="D4" t="str">
+        <v>&lt;0..maxNoULRTOA&gt;</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>Information below included for each UL RTOA measurement.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>UL EARFCN</v>
+      </c>
+      <c r="C5" t="str">
+        <v>M</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>INTEGER (0..maxEARFCN,…)</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Corresponds to NUL for FDD and NDL/UL for TDD in TS 36.104.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>UL RTOA</v>
+      </c>
+      <c r="C6" t="str">
+        <v>M</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>INTEGER (1..4800, …)</v>
+      </c>
+      <c r="F6" t="str">
+        <v>LU RTOA Measruement. Mapping of the measured quantity is as defined in TS 36.111 [9].</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>maxNoULRTOA</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Maximum no. of UL RTOA measurements per UE is 5 , one measurement per carrier.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>maxEARFCN</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Maximum value of UL EARFCN. Value is 262143.</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>LMU ID</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="D3" t="str">
+        <v>IE type and reference</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Semantics description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>LMU ID</v>
+      </c>
+      <c r="B4" t="str">
+        <v>M</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>INTEGER (0..1048575)</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>E-SMLC ID</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="D3" t="str">
+        <v>IE type and reference</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Semantics description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>E-SMLC ID</v>
+      </c>
+      <c r="B4" t="str">
+        <v>M</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>INTEGER (0..255)</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>LMU Information</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="F3" t="str">
+        <v>IE type and reference</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Semantics description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>LMU Position</v>
+      </c>
+      <c r="D4" t="str">
+        <v>O</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>Latitude Sign</v>
+      </c>
+      <c r="D5" t="str">
+        <v>M</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>ENUMERATED (North, South)</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>Degrees Of Latitude</v>
+      </c>
+      <c r="D6" t="str">
+        <v>M</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>INTEGER (0..223-1)</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Degrees Of Longitude</v>
+      </c>
+      <c r="D7" t="str">
+        <v>M</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>INTEGER (-223..223-1)</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>Direction of Altitude</v>
+      </c>
+      <c r="D8" t="str">
+        <v>M</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>ENUMERATED (Height, Depth)</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>Altitude</v>
+      </c>
+      <c r="D9" t="str">
+        <v>M</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>INTEGER (0..215-1)</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>Uncertainty semi-major</v>
+      </c>
+      <c r="D10" t="str">
+        <v>M</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>INTEGER (0..127)</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>Uncertainty semi-minor</v>
+      </c>
+      <c r="D11" t="str">
+        <v>M</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>INTEGER (0..127)</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>Orientation of major axis</v>
+      </c>
+      <c r="D12" t="str">
+        <v>M</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>INTEGER (0..179)</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>Uncertainty Altitude</v>
+      </c>
+      <c r="D13" t="str">
+        <v>M</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>INTEGER (0..127)</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>Confidence</v>
+      </c>
+      <c r="D14" t="str">
+        <v>M</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>INTEGER (0..100)</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>ListofRFBands</v>
+      </c>
+      <c r="D15" t="str">
+        <v>M</v>
+      </c>
+      <c r="E15" t="str">
+        <v>&lt;1..maxNoLMURfBands.</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>Information below included for each RF band supported</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>FreqBandIndicator</v>
+      </c>
+      <c r="D16" t="str">
+        <v>M</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>INTEGER (1..256, ...)</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Corresponds to E‑UTRA Operating Band in TS 36.101 [5] Table 5.5-1.</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>BWCombinationParameters</v>
+      </c>
+      <c r="D17" t="str">
+        <v>O</v>
+      </c>
+      <c r="E17" t="str">
+        <v>&lt;1..maxBWComb&gt;</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>Applies for each UE in CA only. List of supported bandwidth combinations in which the LMU can perform UL RTOA measurements for UEs in CA.</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>SupportedBandwidthCombinationSet</v>
+      </c>
+      <c r="D18" t="str">
+        <v>M</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>INTEGER (1..maxBWCombSet)</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Supported bandwidth combination set as defined in 36.101.</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>BandCombination</v>
+      </c>
+      <c r="D19" t="str">
+        <v>M</v>
+      </c>
+      <c r="E19" t="str">
+        <v>&lt;1 to maxSimultaneousBands&gt;</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>FreqBandIndicator</v>
+      </c>
+      <c r="D20" t="str">
+        <v>M</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>INTEGER (1..256,...)</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Corresponds to E‑UTRA Operating Band in the corresponding CA bandwidth combination.</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>maxBWComb</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Maximum no. of Band Combinations is 128.</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>maxBWCombSet</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Maximum index of the bandwidth combination set is 32.</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>maxSimultaneousBands</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Maximum number of Simultaneous Bands is 4.</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>maxNoLMURfBands</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Maximum number of LMU RF Bands is 256.</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G26"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>LMU Position</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="D3" t="str">
+        <v>IE Type and Reference</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Semantics Description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Latitude Sign</v>
+      </c>
+      <c r="B4" t="str">
+        <v>M</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>ENUMERATED (North, South)</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Degrees Of Latitude</v>
+      </c>
+      <c r="B5" t="str">
+        <v>M</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>INTEGER (0..223-1)</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Degrees Of Longitude</v>
+      </c>
+      <c r="B6" t="str">
+        <v>M</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>INTEGER (-223..223-1)</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Direction of Altitude</v>
+      </c>
+      <c r="B7" t="str">
+        <v>M</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>ENUMERATED (Height, Depth)</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Altitude</v>
+      </c>
+      <c r="B8" t="str">
+        <v>M</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>INTEGER (0..215-1)</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Uncertainty semi-major</v>
+      </c>
+      <c r="B9" t="str">
+        <v>M</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v>INTEGER (0..127)</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Uncertainty semi-minor</v>
+      </c>
+      <c r="B10" t="str">
+        <v>M</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v>INTEGER (0..127)</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Orientation of major axis</v>
+      </c>
+      <c r="B11" t="str">
+        <v>M</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>INTEGER (0..179)</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Uncertainty Altitude</v>
+      </c>
+      <c r="B12" t="str">
+        <v>M</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>INTEGER (0..127)</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Confidence</v>
+      </c>
+      <c r="B13" t="str">
+        <v>M</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v>INTEGER (0..100)</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E13"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>MEASUREMENT RESPONSE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="F3" t="str">
+        <v>IE type and reference</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Semantics description</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Criticality</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Assigned Criticality</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="D4" t="str">
+        <v>M</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I4" t="str">
+        <v>reject</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>Procedure Code</v>
+      </c>
+      <c r="D6" t="str">
+        <v>M</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>INTEGER (0..63)</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
+        <v>Type of Message</v>
+      </c>
+      <c r="D7" t="str">
+        <v>M</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="D8" t="str">
+        <v>M</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v>-</v>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>E-SMLC Measurement ID</v>
+      </c>
+      <c r="D9" t="str">
+        <v>M</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>INTEGER(1..65535,…)</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I9" t="str">
+        <v>reject</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>UL RTOA measurements</v>
+      </c>
+      <c r="D10" t="str">
+        <v>M</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I10" t="str">
+        <v>reject</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>ULRTOAMeasurements</v>
+      </c>
+      <c r="D11" t="str">
+        <v>M</v>
+      </c>
+      <c r="E11" t="str">
+        <v>&lt;0..maxNoULRTOA&gt;</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>Information below included for each UL RTOA measurement.</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>UL EARFCN</v>
+      </c>
+      <c r="D12" t="str">
+        <v>M</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>INTEGER (0..maxEARFCN,…)</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Corresponds to NUL for FDD and NDL/UL for TDD in TS 36.104.</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>UL RTOA</v>
+      </c>
+      <c r="D13" t="str">
+        <v>M</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>INTEGER (1..4800, …)</v>
+      </c>
+      <c r="G13" t="str">
+        <v>LU RTOA Measruement. Mapping of the measured quantity is as defined in TS 36.111 [9].</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Criticality Diagnostics</v>
+      </c>
+      <c r="D14" t="str">
+        <v>O</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I14" t="str">
+        <v>ignore</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>Procedure Code</v>
+      </c>
+      <c r="D15" t="str">
+        <v>O</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>INTEGER (0..63)</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>Triggering Message</v>
+      </c>
+      <c r="D16" t="str">
+        <v>O</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
+      </c>
+      <c r="G16" t="str">
+        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>Procedure Criticality</v>
+      </c>
+      <c r="D17" t="str">
+        <v>O</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v>ENUMERATED(reject, ignore, notify)</v>
+      </c>
+      <c r="G17" t="str">
+        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="D18" t="str">
+        <v>O</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>Information Element Criticality Diagnostics</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v>0 to &lt;maxnoof errors&gt;</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>IE Criticality</v>
+      </c>
+      <c r="D20" t="str">
+        <v>M</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>ENUMERATED(reject, ignore, notify)</v>
+      </c>
+      <c r="G20" t="str">
+        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>IE ID</v>
+      </c>
+      <c r="D21" t="str">
+        <v>M</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>INTEGER (0..65535)</v>
+      </c>
+      <c r="G21" t="str">
+        <v>The IE ID of the not understood or missing IE</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>Type of Error</v>
+      </c>
+      <c r="D22" t="str">
+        <v>M</v>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v>ENUMERATED(not understood, missing, …)</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>maxnooferrors</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Maximum no. of IE errors allowed to be reported with a single message. The value for maxnooferrors is 256.</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>maxNoULRTOA</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Maximum no. of UL RTOA measurements per UE is 5 , one measurement per carrier.</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>maxEARFCN</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Maximum value of UL EARFCN. Value is 262143.</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:I27"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Cause</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="F3" t="str">
+        <v>IE Type and Reference</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Semantics Description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>CHOICE Cause Group</v>
+      </c>
+      <c r="D4" t="str">
+        <v>M</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>Radio Network Layer</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>Radio Network Layer Cause</v>
+      </c>
+      <c r="D6" t="str">
+        <v>M</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>ENUMERATED (Unknown or already allocated SLmAP ID, RF frequency bands not supported, RF bandwidth combination for a CA UE not supported, Invalid SRS configuration, Unspecified, …)</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Protocol</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="str">
+        <v>Protocol Cause</v>
+      </c>
+      <c r="D8" t="str">
+        <v>M</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>ENUMERATED (Transfer Syntax Error, Abstract Syntax Error (Reject), Abstract Syntax Error (Ignore and Notify), Message not Compatible with Receiver State, Semantic Error, Abstract Syntax Error (Falsely Constructed Message), Unspecified, …)</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="str">
+        <v>Miscellaneous Cause</v>
+      </c>
+      <c r="D10" t="str">
+        <v>M</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>ENUMERATED (Control Processing Overload, Processing Resources not available, Hardware Failure, O&amp;M Intervention, Unspecified, …)</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Radio Network Layer cause</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Meaning</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Unknown or already allocated SLmAP ID</v>
+      </c>
+      <c r="B4" t="str">
+        <v>The action failed because the SLmAP ID is either unknown, or (for a first message received at the LMU) is known and already allocated to an existing context.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>RF frequency bands not supported</v>
+      </c>
+      <c r="B5" t="str">
+        <v>The LMU does not support UL RTOA measurements in the requested RF band or RF band combinations for a CA UE.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>RF bandwidth combination for a CA UE not supported</v>
+      </c>
+      <c r="B6" t="str">
+        <v>The LMU does not support UL RTOA measurements for a CA UE over the requested RF bandwidth or RF bandwidth combinations.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Invalid SRS configuration</v>
+      </c>
+      <c r="B7" t="str">
+        <v>The received SRS configuration for the target UE was not valid.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Unspecified</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Sent when none of the above cause values applies but still the cause is Location Measurement related.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Protocol cause</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Meaning</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Transfer Syntax Error</v>
+      </c>
+      <c r="B11" t="str">
+        <v>The received message included a transfer syntax error.</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Abstract Syntax Error (Reject)</v>
+      </c>
+      <c r="B12" t="str">
+        <v>The received message included an abstract syntax error and the concerning criticality indicated "reject".</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Abstract Syntax Error (Ignore And Notify)</v>
+      </c>
+      <c r="B13" t="str">
+        <v>The received message included an abstract syntax error and the concerning criticality indicated "ignore and notify".</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Message Not Compatible With LMU State</v>
+      </c>
+      <c r="B14" t="str">
+        <v>The received message was not compatible with the LMU state.</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Semantic Error</v>
+      </c>
+      <c r="B15" t="str">
+        <v>The received message included a semantic error.</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Abstract Syntax Error (Falsely Constructed Message)</v>
+      </c>
+      <c r="B16" t="str">
+        <v>The received message contained IEs or IE groups in wrong order or with too many occurrences.</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Unspecified</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Sent when none of the above cause values applies but still the cause is Protocol related.</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Miscellaneous cause</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Meaning</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Control Processing Overload</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Control processing overload.</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Not Enough Processing Resources Available</v>
+      </c>
+      <c r="B21" t="str">
+        <v>No enough resources are available related to location processing.</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Hardware Failure</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Action related to hardware failure.</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>O&amp;M Intervention</v>
+      </c>
+      <c r="B23" t="str">
+        <v>The action is due to O&amp;M intervention.</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Unspecified Failure</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Sent when none of the above cause values applies and the cause is not related to either the Location Processing or Protocol categories.</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A2:B25"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Criticality Diagnostics</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="E3" t="str">
+        <v>IE type and reference</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Semantics description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Procedure Code</v>
+      </c>
+      <c r="C4" t="str">
+        <v>O</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>INTEGER (0..63)</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Triggering Message</v>
+      </c>
+      <c r="C5" t="str">
+        <v>O</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
+      </c>
+      <c r="F5" t="str">
+        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Procedure Criticality</v>
+      </c>
+      <c r="C6" t="str">
+        <v>O</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>ENUMERATED(reject, ignore, notify)</v>
+      </c>
+      <c r="F6" t="str">
+        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="C7" t="str">
+        <v>O</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Information Element Criticality Diagnostics</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>0 to &lt;maxnoof errors&gt;</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>IE Criticality</v>
+      </c>
+      <c r="C9" t="str">
+        <v>M</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v>ENUMERATED(reject, ignore, notify)</v>
+      </c>
+      <c r="F9" t="str">
+        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>IE ID</v>
+      </c>
+      <c r="C10" t="str">
+        <v>M</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v>INTEGER (0..65535)</v>
+      </c>
+      <c r="F10" t="str">
+        <v>The IE ID of the not understood or missing IE</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>Type of Error</v>
+      </c>
+      <c r="C11" t="str">
+        <v>M</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>ENUMERATED(not understood, missing, …)</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>maxnooferrors</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Maximum no. of IE errors allowed to be reported with a single message. The value for maxnooferrors is 256.</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>E-SMLC Measurement ID</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IE/Group Name</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Presence</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Range</v>
+      </c>
+      <c r="D3" t="str">
+        <v>IE Type and Reference</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Semantics Description</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>E-SMLC Measurement ID</v>
+      </c>
+      <c r="B4" t="str">
+        <v>M</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>INTEGER(1..65535,…)</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2011,6 +4266,12 @@
       <c r="E4" t="str">
         <v>M</v>
       </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
       <c r="I4" t="str">
         <v>YES</v>
       </c>
@@ -2020,251 +4281,422 @@
     </row>
     <row r="5">
       <c r="B5" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
         <v>Procedure Code</v>
       </c>
-      <c r="E5" t="str">
-        <v>M</v>
-      </c>
-      <c r="G5" t="str">
+      <c r="E6" t="str">
+        <v>M</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
         <v>INTEGER (0..63)</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
+      <c r="H6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
         <v>Type of Message</v>
       </c>
-      <c r="E6" t="str">
-        <v>M</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="E7" t="str">
+        <v>M</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
         <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="E7" t="str">
-        <v>M</v>
-      </c>
-      <c r="G7" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
-      <c r="I7" t="str">
-        <v>-</v>
+      <c r="H7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>E-SMLC Measurement ID</v>
+        <v>SLmAP Transaction ID</v>
       </c>
       <c r="E8" t="str">
         <v>M</v>
       </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
       <c r="G8" t="str">
-        <v>INTEGER(1..65535,…)</v>
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
       </c>
       <c r="I8" t="str">
-        <v>YES</v>
+        <v>-</v>
       </c>
       <c r="J8" t="str">
-        <v>reject</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Cause</v>
+        <v>E-SMLC Measurement ID</v>
       </c>
       <c r="E9" t="str">
         <v>M</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>INTEGER(1..65535,…)</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
       </c>
       <c r="I9" t="str">
         <v>YES</v>
       </c>
       <c r="J9" t="str">
+        <v>reject</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Cause</v>
+      </c>
+      <c r="E10" t="str">
+        <v>M</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>YES</v>
+      </c>
+      <c r="J10" t="str">
         <v>ignore</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="str">
+    <row r="11">
+      <c r="B11" t="str">
         <v>CHOICE Cause Group</v>
       </c>
-      <c r="E10" t="str">
-        <v>M</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="str">
+      <c r="E11" t="str">
+        <v>M</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
         <v>Radio Network Layer</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="D12" t="str">
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="str">
         <v>Radio Network Layer Cause</v>
       </c>
-      <c r="E12" t="str">
-        <v>M</v>
-      </c>
-      <c r="G12" t="str">
+      <c r="E13" t="str">
+        <v>M</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
         <v>ENUMERATED (Unknown or already allocated SLmAP ID, RF frequency bands not supported, RF bandwidth combination for a CA UE not supported, Invalid SRS configuration, Unspecified, …)</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="str">
+      <c r="H13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
         <v>Protocol</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="str">
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="str">
         <v>Protocol Cause</v>
       </c>
-      <c r="E14" t="str">
-        <v>M</v>
-      </c>
-      <c r="G14" t="str">
+      <c r="E15" t="str">
+        <v>M</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
         <v>ENUMERATED (Transfer Syntax Error, Abstract Syntax Error (Reject), Abstract Syntax Error (Ignore and Notify), Message not Compatible with Receiver State, Semantic Error, Abstract Syntax Error (Falsely Constructed Message), Unspecified, …)</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
+      <c r="H15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
         <v>Misc</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="str">
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="str">
         <v>Miscellaneous Cause</v>
       </c>
-      <c r="E16" t="str">
-        <v>M</v>
-      </c>
-      <c r="G16" t="str">
+      <c r="E17" t="str">
+        <v>M</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
         <v>ENUMERATED (Control Processing Overload, Processing Resources not available, Hardware Failure, O&amp;M Intervention, Unspecified, …)</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
+      <c r="H17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
         <v>Criticality Diagnostics</v>
-      </c>
-      <c r="E17" t="str">
-        <v>O</v>
-      </c>
-      <c r="I17" t="str">
-        <v>YES</v>
-      </c>
-      <c r="J17" t="str">
-        <v>ignore</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="str">
-        <v>Procedure Code</v>
       </c>
       <c r="E18" t="str">
         <v>O</v>
       </c>
-      <c r="G18" t="str">
-        <v>INTEGER (0..63)</v>
+      <c r="F18" t="str">
+        <v/>
       </c>
       <c r="H18" t="str">
-        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v>YES</v>
+      </c>
+      <c r="J18" t="str">
+        <v>ignore</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>Triggering Message</v>
+        <v>Procedure Code</v>
       </c>
       <c r="E19" t="str">
         <v>O</v>
       </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
       <c r="G19" t="str">
-        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
+        <v>INTEGER (0..63)</v>
       </c>
       <c r="H19" t="str">
-        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
+        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <v>Procedure Criticality</v>
+        <v>Triggering Message</v>
       </c>
       <c r="E20" t="str">
         <v>O</v>
       </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
       <c r="G20" t="str">
-        <v>ENUMERATED(reject, ignore, notify)</v>
+        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
       </c>
       <c r="H20" t="str">
-        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
+        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="str">
-        <v>SLmAP Transaction ID</v>
+        <v>Procedure Criticality</v>
       </c>
       <c r="E21" t="str">
         <v>O</v>
       </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
       <c r="G21" t="str">
-        <v>INTEGER (0..32767, …)</v>
+        <v>ENUMERATED(reject, ignore, notify)</v>
+      </c>
+      <c r="H21" t="str">
+        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="E22" t="str">
+        <v>O</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
         <v>Information Element Criticality Diagnostics</v>
       </c>
-      <c r="F22" t="str">
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
         <v>0 to &lt;maxnoof errors&gt;</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="str">
-        <v>IE Criticality</v>
-      </c>
-      <c r="E23" t="str">
-        <v>M</v>
-      </c>
       <c r="G23" t="str">
-        <v>ENUMERATED(reject, ignore, notify)</v>
+        <v/>
       </c>
       <c r="H23" t="str">
-        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="str">
-        <v>IE ID</v>
+        <v>IE Criticality</v>
       </c>
       <c r="E24" t="str">
         <v>M</v>
       </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
       <c r="G24" t="str">
-        <v>INTEGER (0..65535)</v>
+        <v>ENUMERATED(reject, ignore, notify)</v>
       </c>
       <c r="H24" t="str">
-        <v>The IE ID of the not understood or missing IE</v>
+        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="str">
+        <v>IE ID</v>
+      </c>
+      <c r="E25" t="str">
+        <v>M</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>INTEGER (0..65535)</v>
+      </c>
+      <c r="H25" t="str">
+        <v>The IE ID of the not understood or missing IE</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
         <v>Type of Error</v>
       </c>
-      <c r="E25" t="str">
-        <v>M</v>
-      </c>
-      <c r="G25" t="str">
+      <c r="E26" t="str">
+        <v>M</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
         <v>ENUMERATED(not understood, missing, …)</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>maxnooferrors</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Maximum no. of IE errors allowed to be reported with a single message. The value for maxnooferrors is 256.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J29"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2304,6 +4736,12 @@
       <c r="E4" t="str">
         <v>M</v>
       </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
       <c r="I4" t="str">
         <v>YES</v>
       </c>
@@ -2313,63 +4751,93 @@
     </row>
     <row r="5">
       <c r="B5" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
         <v>Procedure Code</v>
       </c>
-      <c r="E5" t="str">
-        <v>M</v>
-      </c>
-      <c r="G5" t="str">
+      <c r="E6" t="str">
+        <v>M</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
         <v>INTEGER (0..63)</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
+      <c r="H6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
         <v>Type of Message</v>
       </c>
-      <c r="E6" t="str">
-        <v>M</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="E7" t="str">
+        <v>M</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
         <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="E7" t="str">
-        <v>M</v>
-      </c>
-      <c r="G7" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
-      <c r="I7" t="str">
-        <v>-</v>
+      <c r="H7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>LMU ID</v>
+        <v>SLmAP Transaction ID</v>
       </c>
       <c r="E8" t="str">
         <v>M</v>
       </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
       <c r="G8" t="str">
-        <v>INTEGER (0..1048575)</v>
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
       </c>
       <c r="I8" t="str">
-        <v>YES</v>
+        <v>-</v>
       </c>
       <c r="J8" t="str">
-        <v>ignore</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>LMU Information</v>
+        <v>LMU ID</v>
       </c>
       <c r="E9" t="str">
-        <v>O</v>
+        <v>M</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>INTEGER (0..1048575)</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
       </c>
       <c r="I9" t="str">
         <v>YES</v>
@@ -2379,214 +4847,361 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="str">
-        <v>LMU Position</v>
+      <c r="A10" t="str">
+        <v>LMU Information</v>
       </c>
       <c r="E10" t="str">
         <v>O</v>
       </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>YES</v>
+      </c>
+      <c r="J10" t="str">
+        <v>ignore</v>
+      </c>
     </row>
     <row r="11">
-      <c r="C11" t="str">
-        <v>Latitude Sign</v>
+      <c r="B11" t="str">
+        <v>LMU Position</v>
       </c>
       <c r="E11" t="str">
-        <v>M</v>
-      </c>
-      <c r="G11" t="str">
-        <v>ENUMERATED (North, South)</v>
+        <v>O</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="str">
-        <v>Degrees Of Latitude</v>
+        <v>Latitude Sign</v>
       </c>
       <c r="E12" t="str">
         <v>M</v>
       </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
       <c r="G12" t="str">
-        <v>INTEGER (0..2^(23)-1)</v>
+        <v>ENUMERATED (North, South)</v>
+      </c>
+      <c r="H12" t="str">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="str">
-        <v>Degrees Of Longitude</v>
+        <v>Degrees Of Latitude</v>
       </c>
       <c r="E13" t="str">
         <v>M</v>
       </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
       <c r="G13" t="str">
-        <v>INTEGER (-2^(23)..2^(23)-1)</v>
+        <v>INTEGER (0..223-1)</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="str">
-        <v>Direction of Altitude</v>
+        <v>Degrees Of Longitude</v>
       </c>
       <c r="E14" t="str">
         <v>M</v>
       </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
       <c r="G14" t="str">
-        <v>ENUMERATED (Height, Depth)</v>
+        <v>INTEGER (-223..223-1)</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="str">
-        <v>Altitude</v>
+        <v>Direction of Altitude</v>
       </c>
       <c r="E15" t="str">
         <v>M</v>
       </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
       <c r="G15" t="str">
-        <v>INTEGER (0..2^(15)-1)</v>
+        <v>ENUMERATED (Height, Depth)</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="str">
-        <v>Uncertainty semi-major</v>
+        <v>Altitude</v>
       </c>
       <c r="E16" t="str">
         <v>M</v>
       </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
       <c r="G16" t="str">
-        <v>INTEGER (0..127)</v>
+        <v>INTEGER (0..215-1)</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>Uncertainty semi-minor</v>
+        <v>Uncertainty semi-major</v>
       </c>
       <c r="E17" t="str">
         <v>M</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
       </c>
       <c r="G17" t="str">
         <v>INTEGER (0..127)</v>
       </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>Orientation of major axis</v>
+        <v>Uncertainty semi-minor</v>
       </c>
       <c r="E18" t="str">
         <v>M</v>
       </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
       <c r="G18" t="str">
-        <v>INTEGER (0..179)</v>
+        <v>INTEGER (0..127)</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="str">
-        <v>Uncertainty Altitude</v>
+        <v>Orientation of major axis</v>
       </c>
       <c r="E19" t="str">
         <v>M</v>
       </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
       <c r="G19" t="str">
-        <v>INTEGER (0..127)</v>
+        <v>INTEGER (0..179)</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="str">
+        <v>Uncertainty Altitude</v>
+      </c>
+      <c r="E20" t="str">
+        <v>M</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>INTEGER (0..127)</v>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
         <v>Confidence</v>
       </c>
-      <c r="E20" t="str">
-        <v>M</v>
-      </c>
-      <c r="G20" t="str">
+      <c r="E21" t="str">
+        <v>M</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
         <v>INTEGER (0..100)</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="str">
+      <c r="H21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
         <v>ListofRFBands</v>
       </c>
-      <c r="E21" t="str">
-        <v>M</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="E22" t="str">
+        <v>M</v>
+      </c>
+      <c r="F22" t="str">
         <v>&lt;1..maxNoLMURfBands.</v>
       </c>
-      <c r="H21" t="str">
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
         <v>Information below included for each RF band supported</v>
       </c>
     </row>
-    <row r="22">
-      <c r="C22" t="str">
+    <row r="23">
+      <c r="C23" t="str">
         <v>FreqBandIndicator</v>
       </c>
-      <c r="E22" t="str">
-        <v>M</v>
-      </c>
-      <c r="G22" t="str">
+      <c r="E23" t="str">
+        <v>M</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
         <v>INTEGER (1..256, ...)</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H23" t="str">
         <v>Corresponds to E‑UTRA Operating Band in TS 36.101 [5] Table 5.5-1.</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="str">
+    <row r="24">
+      <c r="B24" t="str">
         <v>BWCombinationParameters</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E24" t="str">
         <v>O</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F24" t="str">
         <v>&lt;1..maxBWComb&gt;</v>
       </c>
-      <c r="H23" t="str">
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
         <v>Applies for each UE in CA only. List of supported bandwidth combinations in which the LMU can perform UL RTOA measurements for UEs in CA.</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="str">
-        <v>SupportedBandwidthCombinationSet</v>
-      </c>
-      <c r="E24" t="str">
-        <v>M</v>
-      </c>
-      <c r="G24" t="str">
-        <v>INTEGER (1..maxBWCombSet)</v>
-      </c>
-      <c r="H24" t="str">
-        <v>Supported bandwidth combination set as defined in 36.101.</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="str">
+        <v>SupportedBandwidthCombinationSet</v>
+      </c>
+      <c r="E25" t="str">
+        <v>M</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>INTEGER (1..maxBWCombSet)</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Supported bandwidth combination set as defined in 36.101.</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
         <v>BandCombination</v>
       </c>
-      <c r="E25" t="str">
-        <v>M</v>
-      </c>
-      <c r="F25" t="str">
+      <c r="E26" t="str">
+        <v>M</v>
+      </c>
+      <c r="F26" t="str">
         <v>&lt;1 to maxSimultaneousBands&gt;</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="D26" t="str">
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="str">
         <v>FreqBandIndicator</v>
       </c>
-      <c r="E26" t="str">
-        <v>M</v>
-      </c>
-      <c r="G26" t="str">
+      <c r="E27" t="str">
+        <v>M</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
         <v>INTEGER (1..256,...)</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H27" t="str">
         <v>Corresponds to E‑UTRA Operating Band in the corresponding CA bandwidth combination.</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>maxBWComb</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Maximum no. of Band Combinations is 128.</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>maxBWCombSet</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Maximum index of the bandwidth combination set is 32.</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>maxSimultaneousBands</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Maximum number of Simultaneous Bands is 4.</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>maxNoLMURfBands</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Maximum number of LMU RF Bands is 256.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J33"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2626,6 +5241,12 @@
       <c r="D4" t="str">
         <v>M</v>
       </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
       <c r="H4" t="str">
         <v>YES</v>
       </c>
@@ -2635,181 +5256,283 @@
     </row>
     <row r="5">
       <c r="B5" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
         <v>Procedure Code</v>
       </c>
-      <c r="D5" t="str">
-        <v>M</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="D6" t="str">
+        <v>M</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
         <v>INTEGER (0..63)</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
         <v>Type of Message</v>
       </c>
-      <c r="D6" t="str">
-        <v>M</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="D7" t="str">
+        <v>M</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
         <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="D7" t="str">
-        <v>M</v>
-      </c>
-      <c r="F7" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
-      <c r="H7" t="str">
-        <v>-</v>
+      <c r="G7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>E-SMLC ID</v>
+        <v>SLmAP Transaction ID</v>
       </c>
       <c r="D8" t="str">
         <v>M</v>
       </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
       <c r="F8" t="str">
-        <v>INTEGER (0..255)</v>
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>YES</v>
+        <v>-</v>
       </c>
       <c r="I8" t="str">
-        <v>reject</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Criticality Diagnostics</v>
+        <v>E-SMLC ID</v>
       </c>
       <c r="D9" t="str">
-        <v>O</v>
+        <v>M</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>INTEGER (0..255)</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
       </c>
       <c r="H9" t="str">
         <v>YES</v>
       </c>
       <c r="I9" t="str">
-        <v>ignore</v>
+        <v>reject</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="str">
-        <v>Procedure Code</v>
+      <c r="A10" t="str">
+        <v>Criticality Diagnostics</v>
       </c>
       <c r="D10" t="str">
         <v>O</v>
       </c>
-      <c r="F10" t="str">
-        <v>INTEGER (0..63)</v>
+      <c r="E10" t="str">
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I10" t="str">
+        <v>ignore</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="str">
-        <v>Triggering Message</v>
+        <v>Procedure Code</v>
       </c>
       <c r="D11" t="str">
         <v>O</v>
       </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
       <c r="F11" t="str">
-        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
+        <v>INTEGER (0..63)</v>
       </c>
       <c r="G11" t="str">
-        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
+        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>Procedure Criticality</v>
+        <v>Triggering Message</v>
       </c>
       <c r="D12" t="str">
         <v>O</v>
       </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
       <c r="F12" t="str">
-        <v>ENUMERATED(reject, ignore, notify)</v>
+        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
       </c>
       <c r="G12" t="str">
-        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
+        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="str">
-        <v>SLmAP Transaction ID</v>
+        <v>Procedure Criticality</v>
       </c>
       <c r="D13" t="str">
         <v>O</v>
       </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
       <c r="F13" t="str">
-        <v>INTEGER (0..32767, …)</v>
+        <v>ENUMERATED(reject, ignore, notify)</v>
+      </c>
+      <c r="G13" t="str">
+        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="D14" t="str">
+        <v>O</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
         <v>Information Element Criticality Diagnostics</v>
       </c>
-      <c r="E14" t="str">
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
         <v>0 to &lt;maxnoof errors&gt;</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
-        <v>IE Criticality</v>
-      </c>
-      <c r="D15" t="str">
-        <v>M</v>
-      </c>
       <c r="F15" t="str">
-        <v>ENUMERATED(reject, ignore, notify)</v>
+        <v/>
       </c>
       <c r="G15" t="str">
-        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="str">
-        <v>IE ID</v>
+        <v>IE Criticality</v>
       </c>
       <c r="D16" t="str">
         <v>M</v>
       </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
       <c r="F16" t="str">
-        <v>INTEGER (0..65535)</v>
+        <v>ENUMERATED(reject, ignore, notify)</v>
       </c>
       <c r="G16" t="str">
-        <v>The IE ID of the not understood or missing IE</v>
+        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
+        <v>IE ID</v>
+      </c>
+      <c r="D17" t="str">
+        <v>M</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v>INTEGER (0..65535)</v>
+      </c>
+      <c r="G17" t="str">
+        <v>The IE ID of the not understood or missing IE</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
         <v>Type of Error</v>
       </c>
-      <c r="D17" t="str">
-        <v>M</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="D18" t="str">
+        <v>M</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
         <v>ENUMERATED(not understood, missing, …)</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>maxnooferrors</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Maximum no. of IE errors allowed to be reported with a single message. The value for maxnooferrors is 256.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I21"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2849,6 +5572,12 @@
       <c r="E4" t="str">
         <v>M</v>
       </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
       <c r="I4" t="str">
         <v>YES</v>
       </c>
@@ -2858,234 +5587,399 @@
     </row>
     <row r="5">
       <c r="B5" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
         <v>Procedure Code</v>
       </c>
-      <c r="E5" t="str">
-        <v>M</v>
-      </c>
-      <c r="G5" t="str">
+      <c r="E6" t="str">
+        <v>M</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
         <v>INTEGER (0..63)</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
+      <c r="H6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
         <v>Type of Message</v>
       </c>
-      <c r="E6" t="str">
-        <v>M</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="E7" t="str">
+        <v>M</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
         <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="E7" t="str">
-        <v>M</v>
-      </c>
-      <c r="G7" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
-      <c r="I7" t="str">
-        <v>-</v>
+      <c r="H7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="E8" t="str">
+        <v>M</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>-</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
         <v>Cause</v>
       </c>
-      <c r="E8" t="str">
-        <v>M</v>
-      </c>
-      <c r="I8" t="str">
+      <c r="E9" t="str">
+        <v>M</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
         <v>YES</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J9" t="str">
         <v>ignore</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="str">
+    <row r="10">
+      <c r="B10" t="str">
         <v>CHOICE Cause Group</v>
       </c>
-      <c r="E9" t="str">
-        <v>M</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="str">
+      <c r="E10" t="str">
+        <v>M</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="str">
         <v>Radio Network Layer</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="str">
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="str">
         <v>Radio Network Layer Cause</v>
       </c>
-      <c r="E11" t="str">
-        <v>M</v>
-      </c>
-      <c r="G11" t="str">
+      <c r="E12" t="str">
+        <v>M</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
         <v>ENUMERATED (Unknown or already allocated SLmAP ID, RF frequency bands not supported, RF bandwidth combination for a CA UE not supported, Invalid SRS configuration, Unspecified, …)</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="str">
+      <c r="H12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
         <v>Protocol</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="D13" t="str">
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="str">
         <v>Protocol Cause</v>
       </c>
-      <c r="E13" t="str">
-        <v>M</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="E14" t="str">
+        <v>M</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
         <v>ENUMERATED (Transfer Syntax Error, Abstract Syntax Error (Reject), Abstract Syntax Error (Ignore and Notify), Message not Compatible with Receiver State, Semantic Error, Abstract Syntax Error (Falsely Constructed Message), Unspecified, …)</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="str">
+      <c r="H14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
         <v>Misc</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="str">
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="str">
         <v>Miscellaneous Cause</v>
       </c>
-      <c r="E15" t="str">
-        <v>M</v>
-      </c>
-      <c r="G15" t="str">
+      <c r="E16" t="str">
+        <v>M</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
         <v>ENUMERATED (Control Processing Overload, Processing Resources not available, Hardware Failure, O&amp;M Intervention, Unspecified, …)</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
+      <c r="H16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
         <v>Criticality Diagnostics</v>
-      </c>
-      <c r="E16" t="str">
-        <v>O</v>
-      </c>
-      <c r="I16" t="str">
-        <v>YES</v>
-      </c>
-      <c r="J16" t="str">
-        <v>ignore</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="str">
-        <v>Procedure Code</v>
       </c>
       <c r="E17" t="str">
         <v>O</v>
       </c>
-      <c r="G17" t="str">
-        <v>INTEGER (0..63)</v>
+      <c r="F17" t="str">
+        <v/>
       </c>
       <c r="H17" t="str">
-        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v>YES</v>
+      </c>
+      <c r="J17" t="str">
+        <v>ignore</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="str">
-        <v>Triggering Message</v>
+        <v>Procedure Code</v>
       </c>
       <c r="E18" t="str">
         <v>O</v>
       </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
       <c r="G18" t="str">
-        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
+        <v>INTEGER (0..63)</v>
       </c>
       <c r="H18" t="str">
-        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
+        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>Procedure Criticality</v>
+        <v>Triggering Message</v>
       </c>
       <c r="E19" t="str">
         <v>O</v>
       </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
       <c r="G19" t="str">
-        <v>ENUMERATED(reject, ignore, notify)</v>
+        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
       </c>
       <c r="H19" t="str">
-        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
+        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <v>SLmAP Transaction ID</v>
+        <v>Procedure Criticality</v>
       </c>
       <c r="E20" t="str">
         <v>O</v>
       </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
       <c r="G20" t="str">
-        <v>INTEGER (0..32767, …)</v>
+        <v>ENUMERATED(reject, ignore, notify)</v>
+      </c>
+      <c r="H20" t="str">
+        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="E21" t="str">
+        <v>O</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
         <v>Information Element Criticality Diagnostics</v>
       </c>
-      <c r="F21" t="str">
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
         <v>0 to &lt;maxnoof errors&gt;</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="str">
-        <v>IE Criticality</v>
-      </c>
-      <c r="E22" t="str">
-        <v>M</v>
-      </c>
       <c r="G22" t="str">
-        <v>ENUMERATED(reject, ignore, notify)</v>
+        <v/>
       </c>
       <c r="H22" t="str">
-        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="str">
-        <v>IE ID</v>
+        <v>IE Criticality</v>
       </c>
       <c r="E23" t="str">
         <v>M</v>
       </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
       <c r="G23" t="str">
-        <v>INTEGER (0..65535)</v>
+        <v>ENUMERATED(reject, ignore, notify)</v>
       </c>
       <c r="H23" t="str">
-        <v>The IE ID of the not understood or missing IE</v>
+        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="str">
+        <v>IE ID</v>
+      </c>
+      <c r="E24" t="str">
+        <v>M</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>INTEGER (0..65535)</v>
+      </c>
+      <c r="H24" t="str">
+        <v>The IE ID of the not understood or missing IE</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
         <v>Type of Error</v>
       </c>
-      <c r="E24" t="str">
-        <v>M</v>
-      </c>
-      <c r="G24" t="str">
+      <c r="E25" t="str">
+        <v>M</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
         <v>ENUMERATED(not understood, missing, …)</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>maxnooferrors</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Maximum no. of IE errors allowed to be reported with a single message. The value for maxnooferrors is 256.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J28"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3125,6 +6019,12 @@
       <c r="E4" t="str">
         <v>M</v>
       </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
       <c r="I4" t="str">
         <v>YES</v>
       </c>
@@ -3134,120 +6034,227 @@
     </row>
     <row r="5">
       <c r="B5" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
         <v>Procedure Code</v>
       </c>
-      <c r="E5" t="str">
-        <v>M</v>
-      </c>
-      <c r="G5" t="str">
+      <c r="E6" t="str">
+        <v>M</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
         <v>INTEGER (0..63)</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
+      <c r="H6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
         <v>Type of Message</v>
       </c>
-      <c r="E6" t="str">
-        <v>M</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="E7" t="str">
+        <v>M</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
         <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="E7" t="str">
-        <v>M</v>
-      </c>
-      <c r="G7" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
-      <c r="I7" t="str">
-        <v>-</v>
+      <c r="H7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="E8" t="str">
+        <v>M</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>-</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
         <v>Cause</v>
       </c>
-      <c r="E8" t="str">
-        <v>M</v>
-      </c>
-      <c r="I8" t="str">
+      <c r="E9" t="str">
+        <v>M</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
         <v>YES</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J9" t="str">
         <v>ignore</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="str">
+    <row r="10">
+      <c r="B10" t="str">
         <v>CHOICE Cause Group</v>
       </c>
-      <c r="E9" t="str">
-        <v>M</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="str">
+      <c r="E10" t="str">
+        <v>M</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="str">
         <v>Radio Network Layer</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="str">
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="str">
         <v>Radio Network Layer Cause</v>
       </c>
-      <c r="E11" t="str">
-        <v>M</v>
-      </c>
-      <c r="G11" t="str">
+      <c r="E12" t="str">
+        <v>M</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
         <v>ENUMERATED (Unknown or already allocated SLmAP ID, RF frequency bands not supported, RF bandwidth combination for a CA UE not supported, Invalid SRS configuration, Unspecified, …)</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="str">
+      <c r="H12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
         <v>Protocol</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="D13" t="str">
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="str">
         <v>Protocol Cause</v>
       </c>
-      <c r="E13" t="str">
-        <v>M</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="E14" t="str">
+        <v>M</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
         <v>ENUMERATED (Transfer Syntax Error, Abstract Syntax Error (Reject), Abstract Syntax Error (Ignore and Notify), Message not Compatible with Receiver State, Semantic Error, Abstract Syntax Error (Falsely Constructed Message), Unspecified, …)</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="str">
+      <c r="H14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
         <v>Misc</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="str">
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="str">
         <v>Miscellaneous Cause</v>
       </c>
-      <c r="E15" t="str">
-        <v>M</v>
-      </c>
-      <c r="G15" t="str">
+      <c r="E16" t="str">
+        <v>M</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
         <v>ENUMERATED (Control Processing Overload, Processing Resources not available, Hardware Failure, O&amp;M Intervention, Unspecified, …)</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J16"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3287,6 +6294,12 @@
       <c r="D4" t="str">
         <v>M</v>
       </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
       <c r="H4" t="str">
         <v>YES</v>
       </c>
@@ -3296,164 +6309,260 @@
     </row>
     <row r="5">
       <c r="B5" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
         <v>Procedure Code</v>
       </c>
-      <c r="D5" t="str">
-        <v>M</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="D6" t="str">
+        <v>M</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
         <v>INTEGER (0..63)</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
         <v>Type of Message</v>
       </c>
-      <c r="D6" t="str">
-        <v>M</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="D7" t="str">
+        <v>M</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
         <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="D7" t="str">
-        <v>M</v>
-      </c>
-      <c r="F7" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
-      <c r="H7" t="str">
-        <v>-</v>
+      <c r="G7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="D8" t="str">
+        <v>M</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v>-</v>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
         <v>Criticality Diagnostics</v>
-      </c>
-      <c r="D8" t="str">
-        <v>O</v>
-      </c>
-      <c r="H8" t="str">
-        <v>YES</v>
-      </c>
-      <c r="I8" t="str">
-        <v>ignore</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="str">
-        <v>Procedure Code</v>
       </c>
       <c r="D9" t="str">
         <v>O</v>
       </c>
-      <c r="F9" t="str">
-        <v>INTEGER (0..63)</v>
+      <c r="E9" t="str">
+        <v/>
       </c>
       <c r="G9" t="str">
-        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I9" t="str">
+        <v>ignore</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>Triggering Message</v>
+        <v>Procedure Code</v>
       </c>
       <c r="D10" t="str">
         <v>O</v>
       </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
       <c r="F10" t="str">
-        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
+        <v>INTEGER (0..63)</v>
       </c>
       <c r="G10" t="str">
-        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
+        <v>Procedure Code is to be used if Criticality Diagnostics is part of Error Indication procedure, and not within the response message of the same procedure that caused the error</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="str">
-        <v>Procedure Criticality</v>
+        <v>Triggering Message</v>
       </c>
       <c r="D11" t="str">
         <v>O</v>
       </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
       <c r="F11" t="str">
-        <v>ENUMERATED(reject, ignore, notify)</v>
+        <v>ENUMERATED(initiating message, successful outcome, unsuccessful outcome)</v>
       </c>
       <c r="G11" t="str">
-        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
+        <v>The Triggering Message is used only if the Criticality Diagnostics is part of Error Indication procedure.</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>SLmAP Transaction ID</v>
+        <v>Procedure Criticality</v>
       </c>
       <c r="D12" t="str">
         <v>O</v>
       </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
       <c r="F12" t="str">
-        <v>INTEGER (0..32767, …)</v>
+        <v>ENUMERATED(reject, ignore, notify)</v>
+      </c>
+      <c r="G12" t="str">
+        <v>This Procedure Criticality is used for reporting the Criticality of the Triggering message (Procedure).</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="D13" t="str">
+        <v>O</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
         <v>Information Element Criticality Diagnostics</v>
       </c>
-      <c r="E13" t="str">
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
         <v>0 to &lt;maxnoof errors&gt;</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="str">
-        <v>IE Criticality</v>
-      </c>
-      <c r="D14" t="str">
-        <v>M</v>
-      </c>
       <c r="F14" t="str">
-        <v>ENUMERATED(reject, ignore, notify)</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="str">
-        <v>IE ID</v>
+        <v>IE Criticality</v>
       </c>
       <c r="D15" t="str">
         <v>M</v>
       </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
       <c r="F15" t="str">
-        <v>INTEGER (0..65535)</v>
+        <v>ENUMERATED(reject, ignore, notify)</v>
       </c>
       <c r="G15" t="str">
-        <v>The IE ID of the not understood or missing IE</v>
+        <v>The IE Criticality is used for reporting the criticality of the triggering IE. The value 'ignore' shall not be used.</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="str">
+        <v>IE ID</v>
+      </c>
+      <c r="D16" t="str">
+        <v>M</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>INTEGER (0..65535)</v>
+      </c>
+      <c r="G16" t="str">
+        <v>The IE ID of the not understood or missing IE</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
         <v>Type of Error</v>
       </c>
-      <c r="D16" t="str">
-        <v>M</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="D17" t="str">
+        <v>M</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
         <v>ENUMERATED(not understood, missing, …)</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Range bound</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Explanation</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>maxnooferrors</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Maximum no. of IE errors allowed to be reported with a single message. The value for maxnooferrors is 256.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I20"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3467,22 +6576,22 @@
       <c r="A3" t="str">
         <v>IE/Group Name</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <v>Presence</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>Range</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>IE type and reference</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>Semantics description</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <v>Criticality</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <v>Assigned Criticality</v>
       </c>
     </row>
@@ -3490,72 +6599,122 @@
       <c r="A4" t="str">
         <v>Message Type</v>
       </c>
-      <c r="C4" t="str">
-        <v>M</v>
+      <c r="D4" t="str">
+        <v>M</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
       </c>
       <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
         <v>YES</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <v>reject</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
+        <v>Message Type</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
         <v>Procedure Code</v>
       </c>
-      <c r="C5" t="str">
-        <v>M</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="D6" t="str">
+        <v>M</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
         <v>INTEGER (0..63)</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
         <v>Type of Message</v>
       </c>
-      <c r="C6" t="str">
-        <v>M</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="D7" t="str">
+        <v>M</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
         <v>CHOICE (Initiating Message, Successful Outcome, Unsuccessful Outcome, …)</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SLmAP Transaction ID</v>
-      </c>
-      <c r="C7" t="str">
-        <v>M</v>
-      </c>
-      <c r="E7" t="str">
-        <v>INTEGER (0..32767, …)</v>
-      </c>
       <c r="G7" t="str">
-        <v>-</v>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>SLmAP Transaction ID</v>
+      </c>
+      <c r="D8" t="str">
+        <v>M</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>INTEGER (0..32767, …)</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v>-</v>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
         <v>E-SMLC Measurement ID</v>
       </c>
-      <c r="C8" t="str">
-        <v>M</v>
-      </c>
-      <c r="E8" t="str">
+      <c r="D9" t="str">
+        <v>M</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
         <v>INTEGER(1..65535,…)</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
         <v>YES</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I9" t="str">
         <v>reject</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
   </ignoredErrors>
 </worksheet>
 </file>